--- a/docs/syllabus.xlsx
+++ b/docs/syllabus.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\Documents\uni\lab de postroducción\web\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{579F7DE8-B62E-4566-8FB2-831A6B3BDF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3757C81-378E-495E-9C77-410A910AEED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato" sheetId="6" r:id="rId1"/>
     <sheet name="Criterios de Evaluación" sheetId="7" r:id="rId2"/>
+    <sheet name="Extras" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="152">
   <si>
     <t>VERTICAL:</t>
   </si>
@@ -282,22 +283,7 @@
     <t>Porcentaje</t>
   </si>
   <si>
-    <t>Reporte de investigación</t>
-  </si>
-  <si>
-    <t>Actividades en clase</t>
-  </si>
-  <si>
     <t>Análisis de Caso</t>
-  </si>
-  <si>
-    <t>Reporte de audiencia</t>
-  </si>
-  <si>
-    <t>Participación en clase</t>
-  </si>
-  <si>
-    <t>Exámen</t>
   </si>
   <si>
     <t>Calificación Parcial</t>
@@ -492,13 +478,46 @@
   </si>
   <si>
     <t>entrega final</t>
+  </si>
+  <si>
+    <t>Actividad en clase</t>
+  </si>
+  <si>
+    <t>tarea</t>
+  </si>
+  <si>
+    <t>Tarea</t>
+  </si>
+  <si>
+    <t>Actividad en ckase</t>
+  </si>
+  <si>
+    <t>Examen</t>
+  </si>
+  <si>
+    <t>Extras</t>
+  </si>
+  <si>
+    <t>10 minutos de tolerancia para empezar clase</t>
+  </si>
+  <si>
+    <t>80% de asistencia por parcial para tener derecho a examen</t>
+  </si>
+  <si>
+    <t>No se elimina ninguna falta</t>
+  </si>
+  <si>
+    <t>Justificante solo médico</t>
+  </si>
+  <si>
+    <t>Lo no contenplado se revisa contra reglamento estudiantl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -732,6 +751,13 @@
     <font>
       <sz val="7"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1178,7 +1204,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1292,6 +1318,21 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="23" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1322,9 +1363,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1352,11 +1390,14 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="23" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1367,21 +1408,8 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1420,10 +1448,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1691,7 +1715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489E6BB7-EBAC-4872-9246-629E36C278F9}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A32" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -1706,51 +1730,51 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="53" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
@@ -1764,10 +1788,10 @@
       <c r="C6" s="35">
         <v>45152</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="20" t="s">
         <v>10</v>
       </c>
@@ -1784,20 +1808,20 @@
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="56"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="53"/>
+      <c r="D8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -1808,67 +1832,67 @@
       <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
     </row>
     <row r="15" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
     </row>
     <row r="16" spans="1:10" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -1877,16 +1901,16 @@
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62" t="s">
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
       <c r="I16" s="7" t="s">
         <v>24</v>
       </c>
@@ -1907,22 +1931,22 @@
         <v>28</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>29</v>
@@ -1939,20 +1963,20 @@
         <v>32</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>29</v>
@@ -1969,17 +1993,17 @@
         <v>35</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="18" t="s">
@@ -1997,20 +2021,20 @@
         <v>39</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>36</v>
@@ -2027,22 +2051,22 @@
         <v>42</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I22" s="18" t="s">
         <v>36</v>
@@ -2055,17 +2079,17 @@
       <c r="A23" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
@@ -2074,18 +2098,18 @@
       <c r="B24" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="71" t="s">
-        <v>121</v>
+      <c r="C24" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>116</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="72" t="s">
-        <v>123</v>
+      <c r="F24" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>118</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="9" t="s">
@@ -2103,20 +2127,20 @@
         <v>49</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" s="72" t="s">
-        <v>123</v>
+      <c r="F25" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>118</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>36</v>
@@ -2132,21 +2156,21 @@
       <c r="B26" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="71" t="s">
-        <v>129</v>
+      <c r="C26" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>124</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="H26" s="72" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>118</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>36</v>
@@ -2163,15 +2187,15 @@
         <v>55</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" s="72" t="s">
-        <v>123</v>
+        <v>128</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>118</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="9" t="s">
@@ -2205,20 +2229,20 @@
         <v>60</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="71" t="s">
-        <v>134</v>
+        <v>114</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>129</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="H29" s="72" t="s">
-        <v>137</v>
+      <c r="F29" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>132</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>36</v>
@@ -2234,23 +2258,23 @@
       <c r="B30" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" s="72" t="s">
-        <v>141</v>
+      <c r="C30" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>136</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>36</v>
@@ -2286,23 +2310,23 @@
       <c r="B32" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="D32" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32" s="72" t="s">
-        <v>145</v>
+      <c r="C32" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>140</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>36</v>
@@ -2315,17 +2339,17 @@
       <c r="A33" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="45"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
     </row>
     <row r="35" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
@@ -2339,12 +2363,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:I3"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="B33:J33"/>
     <mergeCell ref="C10:J12"/>
@@ -2355,6 +2373,12 @@
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4:G4" r:id="rId1" display="fernando_sandovall@my.uvm.edu.mx" xr:uid="{171488B6-EB87-4F15-8F44-A0276A2DD25A}"/>
@@ -2369,7 +2393,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2388,32 +2412,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="E1" s="65" t="s">
+      <c r="B1" s="71"/>
+      <c r="E1" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="H1" s="65" t="s">
+      <c r="F1" s="71"/>
+      <c r="H1" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="66"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="71"/>
+      <c r="E2" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="H2" s="65" t="s">
+      <c r="F2" s="71"/>
+      <c r="H2" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="66"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
@@ -2437,19 +2461,19 @@
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="B4" s="26">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="F4" s="26">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="I4" s="31">
         <v>0.25</v>
@@ -2457,19 +2481,19 @@
     </row>
     <row r="5" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="B5" s="26">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F5" s="26">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="I5" s="26">
         <v>0.25</v>
@@ -2477,19 +2501,19 @@
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="B6" s="26">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="F6" s="26">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="I6" s="26">
         <v>0.5</v>
@@ -2497,19 +2521,19 @@
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B7" s="27">
         <v>1</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F7" s="27">
         <v>1</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I7" s="27">
         <v>1</v>
@@ -2517,7 +2541,7 @@
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H8" s="28"/>
     </row>
@@ -2541,107 +2565,128 @@
       <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="67"/>
       <c r="E12" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="68"/>
-      <c r="H12" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="68"/>
+        <v>82</v>
+      </c>
+      <c r="F12" s="67"/>
+      <c r="H12" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
       <c r="H13" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="68"/>
+        <v>84</v>
+      </c>
+      <c r="I13" s="67"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B18" s="32"/>
       <c r="E18" s="32" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F18" s="32"/>
       <c r="H18" s="32" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I18" s="32"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
       <c r="B19" s="34"/>
-      <c r="E19" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="68"/>
-      <c r="H19" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="68"/>
+      <c r="E19" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="67"/>
+      <c r="H19" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="67"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
       <c r="B20" s="34"/>
-      <c r="E20" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
+      <c r="E20" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="E22:F22"/>
@@ -2652,34 +2697,78 @@
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F872A47-D6C6-4575-940F-D4552B7E0A46}">
+  <dimension ref="A2:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="73"/>
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="73"/>
+      <c r="B5" s="73" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="73"/>
+      <c r="B6" s="73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFB5635A4B0C8743A05BD995FE69A88E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="97bf5f4414ebcf63b97e6fabf942c77e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0dec28b6-8caf-429a-bddc-6e7c2bbc5762" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="833aa11b64672999dd488cbe7d140b18" ns2:_="">
     <xsd:import namespace="0dec28b6-8caf-429a-bddc-6e7c2bbc5762"/>
@@ -2823,22 +2912,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C6B543E-D985-42F2-8322-AD29668995D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0dec28b6-8caf-429a-bddc-6e7c2bbc5762"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08647F0E-A439-4C44-9951-02727DF2E304}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{838DDABB-715A-41A1-BF9F-78B00A75EAE3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2854,28 +2952,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08647F0E-A439-4C44-9951-02727DF2E304}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C6B543E-D985-42F2-8322-AD29668995D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0dec28b6-8caf-429a-bddc-6e7c2bbc5762"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>